--- a/app/config/tables/ex_ctp_delivery_form/forms/ex_ctp_delivery_form/ex_ctp_delivery_form.xlsx
+++ b/app/config/tables/ex_ctp_delivery_form/forms/ex_ctp_delivery_form/ex_ctp_delivery_form.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RC2\modules\app-designer\app\config\tables\ex_ctp_delivery_form\forms\ex_ctp_delivery_form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarice\red-cross\redcross-app-designer\app\config\tables\ex_ctp_delivery_form\forms\ex_ctp_delivery_form\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19230" yWindow="4770" windowWidth="33300" windowHeight="19410" tabRatio="989"/>
+    <workbookView xWindow="19230" yWindow="4770" windowWidth="33300" windowHeight="19410" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -79,13 +79,25 @@
     <t>get_barcoderanges</t>
   </si>
   <si>
+    <t>get_itempack</t>
+  </si>
+  <si>
+    <t>item_pack_name</t>
+  </si>
+  <si>
     <t>item_scan</t>
   </si>
   <si>
     <t>barcode</t>
   </si>
   <si>
+    <t>item_pack_barcode</t>
+  </si>
+  <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>Please confirm or update item pack barcode.</t>
   </si>
   <si>
     <t>yes_no</t>
@@ -222,118 +234,7 @@
     <t>in_range</t>
   </si>
   <si>
-    <t>partition</t>
-  </si>
-  <si>
-    <t>aspect</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>SurveyUtil</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>SurveyUtil.formId</t>
-  </si>
-  <si>
-    <t>wrong_form</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>unverifiedUserCanCreate</t>
-  </si>
-  <si>
-    <t>defaultAccessOnCreation</t>
-  </si>
-  <si>
-    <t>HIDDEN</t>
-  </si>
-  <si>
-    <t>prompt_type_name</t>
-  </si>
-  <si>
-    <t>async_assign_max</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>async_assign_min</t>
-  </si>
-  <si>
-    <t>async_assign_avg</t>
-  </si>
-  <si>
-    <t>async_assign_sum</t>
-  </si>
-  <si>
-    <t>async_assign_total</t>
-  </si>
-  <si>
-    <t>async_assign_count</t>
-  </si>
-  <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>do section survey</t>
-  </si>
-  <si>
-    <t>goto _finalize</t>
-  </si>
-  <si>
-    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
-  </si>
-  <si>
-    <t>authorizations</t>
-  </si>
-  <si>
-    <t>['COMPLETE', data('authorization_id')]</t>
-  </si>
-  <si>
-    <t>CTP</t>
-  </si>
-  <si>
-    <t>ctp</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>ex_ctp_delivery_form</t>
-  </si>
-  <si>
-    <t>item_barcode</t>
-  </si>
-  <si>
-    <t>Scan the item with barcode: {{data.assigned_item_code}}</t>
-  </si>
-  <si>
-    <t>data('assigned_item_code') === data('item_barcode') || data('assigned_item_code') == '' || data('assigned_item_code') == null || data('assigned_item_code') == undefined</t>
-  </si>
-  <si>
-    <t>get_item</t>
-  </si>
-  <si>
-    <t>item_ranges</t>
-  </si>
-  <si>
-    <t>item_name</t>
-  </si>
-  <si>
-    <t>(function() {var code = parseInt(data('item_barcode'));
+    <t>(function() {var code = parseInt(data('item_pack_barcode'));
  var json = JSON.parse(data('ranges'));
  if (json === null || json === undefined) {
    return 'true';
@@ -353,10 +254,109 @@
 })()</t>
   </si>
   <si>
-    <t>assigned_item_code</t>
-  </si>
-  <si>
-    <t>Please confirm or update item  barcode.</t>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>SurveyUtil</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>SurveyUtil.formId</t>
+  </si>
+  <si>
+    <t>wrong_form</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>unverifiedUserCanCreate</t>
+  </si>
+  <si>
+    <t>defaultAccessOnCreation</t>
+  </si>
+  <si>
+    <t>HIDDEN</t>
+  </si>
+  <si>
+    <t>prompt_type_name</t>
+  </si>
+  <si>
+    <t>async_assign_max</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>async_assign_min</t>
+  </si>
+  <si>
+    <t>async_assign_avg</t>
+  </si>
+  <si>
+    <t>async_assign_sum</t>
+  </si>
+  <si>
+    <t>async_assign_total</t>
+  </si>
+  <si>
+    <t>async_assign_count</t>
+  </si>
+  <si>
+    <t>display.text</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>do section survey</t>
+  </si>
+  <si>
+    <t>goto _finalize</t>
+  </si>
+  <si>
+    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+  </si>
+  <si>
+    <t>authorizations</t>
+  </si>
+  <si>
+    <t>['COMPLETE', data('authorization_id')]</t>
+  </si>
+  <si>
+    <t>item_pack_ranges</t>
+  </si>
+  <si>
+    <t>CTP</t>
+  </si>
+  <si>
+    <t>ctp</t>
+  </si>
+  <si>
+    <t>Scan the item pack with barcode: {{data.assigned_item_pack_code}}</t>
+  </si>
+  <si>
+    <t>assigned_item_pack_code</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>data('assigned_item_pack_code') === data('item_pack_barcode') || data('assigned_item_pack_code') == '' || data('assigned_item_pack_code') == null || data('assigned_item_pack_code') == undefined</t>
+  </si>
+  <si>
+    <t>ex_ctp_delivery_form</t>
   </si>
 </sst>
 </file>
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -976,25 +976,25 @@
         <v>10</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="84" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="12" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2"/>
       <c r="J2" s="1" t="b">
@@ -1007,14 +1007,14 @@
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="17"/>
@@ -1025,21 +1025,21 @@
       </c>
       <c r="K3" s="10"/>
       <c r="L3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
@@ -1059,102 +1059,99 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="48.75" customWidth="1"/>
-    <col min="7" max="7" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>30</v>
-      </c>
       <c r="C3" s="23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1165,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1185,39 +1182,39 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="b">
         <f>TRUE()</f>
@@ -1234,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1245,57 +1242,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B3" s="33">
-        <v>20200331</v>
+        <v>1</v>
       </c>
       <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="34" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C6" s="34"/>
     </row>
@@ -1317,35 +1314,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1358,37 +1355,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="88.875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="283.5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1409,70 +1403,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1493,7 +1487,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>2</v>
@@ -1501,50 +1495,50 @@
     </row>
     <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -1552,7 +1546,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1579,27 +1573,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
